--- a/biology/Zoologie/Bibio_(diptère)/Bibio_(diptère).xlsx
+++ b/biology/Zoologie/Bibio_(diptère)/Bibio_(diptère).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bibio_(dipt%C3%A8re)</t>
+          <t>Bibio_(diptère)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bibio est un genre d'insectes de l'ordre des diptères, famille des Bibionidae. L'ordre des diptères regroupe, entre autres, des espèces principalement désignées par les noms vernaculaires de mouches, moustiques, taons.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bibio_(dipt%C3%A8re)</t>
+          <t>Bibio_(diptère)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom de genre a été publié par le pharmacien et entomologiste français Étienne Louis Geoffroy (1725-1810) en 1762[1].
-Synonymes
-Selon GBIF et Paleobiology Database, quatre publications d'espèces ont été requalifiées en Nomen dubium et synonymes du genre[2],[3] :
-Bibio disjectus Théobald, 1937[4].
-Bibio martinsi Heer, 1861[5].
-Bibio obsoletus (Heer, 1849)[6].
-Penthetria obsoleta (Heer, 1849)[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre a été publié par le pharmacien et entomologiste français Étienne Louis Geoffroy (1725-1810) en 1762.
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bibio_(dipt%C3%A8re)</t>
+          <t>Bibio_(diptère)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +554,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les larves de Bibio grandissent dans les zones herbeuses et sont des herbivores et des charognards se nourrissant de végétation morte ou de racines de plantes vivantes. Certaines espèces se retrouvent dans le compost[7]. Dans certaines régions, les mouches Bibio visitent régulièrement les fleurs et il est suggéré que ce sont des pollinisateurs de plusieurs espèces végétales[8],[9], telles que Heracleum sphondylium et Hieracium pilosella[10].
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF et Paleobiology Database, quatre publications d'espèces ont été requalifiées en Nomen dubium et synonymes du genre, :
+Bibio disjectus Théobald, 1937.
+Bibio martinsi Heer, 1861.
+Bibio obsoletus (Heer, 1849).
+Penthetria obsoleta (Heer, 1849).</t>
         </is>
       </c>
     </row>
@@ -561,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bibio_(dipt%C3%A8re)</t>
+          <t>Bibio_(diptère)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +594,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves de Bibio grandissent dans les zones herbeuses et sont des herbivores et des charognards se nourrissant de végétation morte ou de racines de plantes vivantes. Certaines espèces se retrouvent dans le compost. Dans certaines régions, les mouches Bibio visitent régulièrement les fleurs et il est suggéré que ce sont des pollinisateurs de plusieurs espèces végétales telles que Heracleum sphondylium et Hieracium pilosella.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bibio_(diptère)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_(dipt%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bibio anglicus Verrall, 1869
